--- a/biology/Médecine/Paresthésie/Paresthésie.xlsx
+++ b/biology/Médecine/Paresthésie/Paresthésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paresth%C3%A9sie</t>
+          <t>Paresthésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La paresthésie (du grec παρα signifiant « à côté » et αίσθησις  signifiant « faculté de percevoir par les sens») est un trouble du sens du toucher, regroupant plusieurs symptômes, dont la particularité est d'être désagréables mais non douloureux : fourmillements, picotements, engourdissements, etc.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paresth%C3%A9sie</t>
+          <t>Paresthésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Causes principales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Neurotoxicité de certains produits utilisés en cancérologie, qui se traduit par des neuropathies périphériques (dont paresthésies et une diminution des réflexes myotatiques) généralement réversibles.
 Syndrome du canal carpien
@@ -536,14 +550,14 @@
 Traitement au baclofène
 Accident de décompression (ADD)
 Intoxication par un macromycète provoquant le syndrome orellanien (notamment C. orellanus, C. speciosissimus…)
-Intoxication ou allergie (par exemple due à l'acrylonitrile[1])
+Intoxication ou allergie (par exemple due à l'acrylonitrile)
 Complication de la chirurgie orthognathique
-Désordres hydro-électrolytiques (notamment hypo-[2] comme hyperkaliémie[3])
+Désordres hydro-électrolytiques (notamment hypo- comme hyperkaliémie)
 Trouble de conversion
 Carence en vitamine B12, anémie pernicieuse
 Tumeurs (lymphomes, tumeurs des nerfs et cancers du poumon, de l'estomac, de l'ovaire ou des seins)
 Ataxie de Friedreich
-Syndrome acromélalgien[4]
+Syndrome acromélalgien
 Névralgie cervicobrachiale
 Syringomyélie</t>
         </is>
@@ -555,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paresth%C3%A9sie</t>
+          <t>Paresthésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,9 +587,11 @@
           <t>Autres causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des composés peuvent provoquer une sensation de picotement sur la langue[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des composés peuvent provoquer une sensation de picotement sur la langue :
 Alpha hydroxy sanshool (composé présent dans le poivre du Sichuan) ;
 Spilanthol (en) (composé présent dans le brède mafane (Acmella oleracea)) ;
 Trans-pellitorine ;
